--- a/HP_metadata_template.xlsx
+++ b/HP_metadata_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\h\hpichswp\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrbst20\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43685DA9-931F-4087-8AF9-E34D63D8F153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27345" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2430" yWindow="2880" windowWidth="24150" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>title</t>
   </si>
@@ -35,9 +36,6 @@
     <t>normalized_date_qualifier</t>
   </si>
   <si>
-    <t>date_digitized</t>
-  </si>
-  <si>
     <t>creator</t>
   </si>
   <si>
@@ -47,15 +45,9 @@
     <t>subject</t>
   </si>
   <si>
-    <t xml:space="preserve">subject_location </t>
-  </si>
-  <si>
     <t>format</t>
   </si>
   <si>
-    <t>source_identifier</t>
-  </si>
-  <si>
     <t>identifier</t>
   </si>
   <si>
@@ -74,9 +66,6 @@
     <t>rights_holder</t>
   </si>
   <si>
-    <t xml:space="preserve">source_collection_id </t>
-  </si>
-  <si>
     <t>type_of_resource</t>
   </si>
   <si>
@@ -89,86 +78,113 @@
     <t>depositor</t>
   </si>
   <si>
-    <t>Babcock Boulevard Curve #4</t>
-  </si>
-  <si>
-    <t>1929-07-19</t>
-  </si>
-  <si>
-    <t>2010-10-09/2010-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allegheny County Department of Public Works </t>
-  </si>
-  <si>
-    <t>Babcock Boulevard in Town of McCandless, Allegheny County, PA looking south. Photo shows rural Rodgers property and the Kummer house behind the trees near the upper center part of the photo. A barbed wire fence runs along the left side of the road. Utility poles are also seen.</t>
-  </si>
-  <si>
-    <t>McCandless (Pa.); Babcock Boulevard (McCandless, Pa.)</t>
-  </si>
-  <si>
-    <t>Town of McCandless</t>
-  </si>
-  <si>
-    <t>B&amp;W Photo</t>
-  </si>
-  <si>
-    <t>Babcock Blvd 1929-30001 DPW#7609</t>
-  </si>
-  <si>
-    <t>20100001-hpicnpl-0001</t>
-  </si>
-  <si>
-    <t>20100001-hpicnpl-0001.tif</t>
-  </si>
-  <si>
-    <t>Allegheny County Department of Public Works</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>hpicnpl</t>
-  </si>
-  <si>
     <t>still image</t>
   </si>
   <si>
     <t>photograph</t>
   </si>
   <si>
-    <t>Northland Public Library</t>
-  </si>
-  <si>
-    <t>Babcock Boulevard in Town of McCandless, Allegheny County, PA looking north. The Rodgers property is on the right with the Rodgers' driveway located at the curve in the road. The Noll house can be seen on a hill in the distance on the right side of the image. Utility poles are also seen.</t>
-  </si>
-  <si>
-    <t>Babcock Blvd 1929-30002 DPW#7611</t>
-  </si>
-  <si>
-    <t>20100001-hpicnpl-0002</t>
-  </si>
-  <si>
-    <t>20100001-hpicnpl-0002.tif</t>
-  </si>
-  <si>
-    <t>Babcock Boulevard in Town of McCandless, Allegheny County, PA. Photo shows rural Rodgers property and the Kummer house in the background.</t>
-  </si>
-  <si>
-    <t>Babcock Blvd 1929-30003 DPW#7610</t>
-  </si>
-  <si>
-    <t>20100001-hpicnpl-0003</t>
-  </si>
-  <si>
-    <t>20100001-hpicnpl-0003.tif</t>
+    <t>Pioneer Avenue from West Liberty</t>
+  </si>
+  <si>
+    <t>Automobiles.; Telephone companies--Pennsylvania--Dormont.; Automobile dealers--Pennsylvania--Dormont.</t>
+  </si>
+  <si>
+    <t>A view of Pioneer Avenue from West Liberty Avenue in Dormont. A Bell Telephone company building, now a Verizon building, and the Jones-Lyne Motor Company car dealership, now an Audi dealership, are visible in this image.</t>
+  </si>
+  <si>
+    <t>1930/1940</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>20191021-hpichswp-0001</t>
+  </si>
+  <si>
+    <t>MSP_566_B001_F01_I01.tif</t>
+  </si>
+  <si>
+    <t>MSP 566</t>
+  </si>
+  <si>
+    <t>Melvin Seidenberg Photographs, c. 1828-1988, MSP 566, Rauh Jewish Archives, Detre Library and Archives, Senator John Heinz History Center</t>
+  </si>
+  <si>
+    <t>Dormont (Pa.)</t>
+  </si>
+  <si>
+    <t>MSP_566_B001_F01_I01</t>
+  </si>
+  <si>
+    <t>Detre Library &amp; Archives, Heinz History Center</t>
+  </si>
+  <si>
+    <t>Dwellings--Pennsylvania--Dormont.</t>
+  </si>
+  <si>
+    <t>A view of houses along Pioneer Avenue, taken from West Liberty Avenue, in Dormont. These houses were demolished to make room for a Bell Telephone company building, now a Verizon building.</t>
+  </si>
+  <si>
+    <t>1899</t>
+  </si>
+  <si>
+    <t>20191021-hpichswp-0002</t>
+  </si>
+  <si>
+    <t>MSP_566_B001_F01_I02.tif</t>
+  </si>
+  <si>
+    <t>MSP_566_B001_F01_I02</t>
+  </si>
+  <si>
+    <t>Aerial of Chartiers Valley</t>
+  </si>
+  <si>
+    <t>Urban Redevelopment Authority of Pittsburgh (Pa.)</t>
+  </si>
+  <si>
+    <t>Aerial photographs--Pennsylvania--Chartiers Valley.; Buildings--Pennsylvania--Chartiers Valley.; Railroad trains--Pennsylvania--Chartiers Valley.</t>
+  </si>
+  <si>
+    <t>An aerial photograph of a portion of Chartiers Valley, Pa.</t>
+  </si>
+  <si>
+    <t>1969-04</t>
+  </si>
+  <si>
+    <t>20191021-hpichswp-0003</t>
+  </si>
+  <si>
+    <t>MSP_566_B001_F02_I01.tif</t>
+  </si>
+  <si>
+    <t>Chartiers Valley (Pa.)</t>
+  </si>
+  <si>
+    <t>MSP_566_B001_F02_I01</t>
+  </si>
+  <si>
+    <t>source_collection_id</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>subject_location</t>
+  </si>
+  <si>
+    <t>source_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,9 +242,15 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,260 +534,270 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="U2" sqref="A2:U4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="18.7109375" style="2"/>
-    <col min="6" max="6" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="18.7109375" style="2"/>
+    <col min="1" max="1" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="128.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="42.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="18.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="12.75">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>